--- a/Running projects/Gul Ahmed Energy Limited/PO/016- Purchase order- for wall mounted units.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/PO/016- Purchase order- for wall mounted units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8AE63-5646-43F6-B405-FA5244E80A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A74D451-1C1C-46B2-9348-20938648D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,6 +409,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -441,9 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,46 +999,46 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1077,7 +1077,7 @@
       <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="6">
@@ -1100,7 +1100,7 @@
       <c r="A27" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="6">
@@ -1122,11 +1122,11 @@
     <row r="28" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="19">
         <f>SUM(F26:F27)</f>
         <v>155000</v>
@@ -1135,30 +1135,30 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="20">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="21">
         <f>F28-F29</f>
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
@@ -1175,22 +1175,22 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
